--- a/data/trans_dic/P5_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>28,91%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,43; 36,54</t>
+          <t>23,05; 43,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,63; 43,42</t>
+          <t>22,83; 42,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,2; 34,45</t>
+          <t>18,16; 33,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 34,41</t>
+          <t>19,2; 34,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,6; 33,63</t>
+          <t>22,97; 35,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,07; 35,66</t>
+          <t>23,27; 35,1</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,17</t>
+          <t>20,8; 31,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,3; 30,48</t>
+          <t>22,01; 32,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,99</t>
+          <t>21,69; 31,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 28,23</t>
+          <t>21,74; 30,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,59; 28,4</t>
+          <t>22,61; 30,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 28,22</t>
+          <t>23,17; 29,99</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 24,86</t>
+          <t>11,05; 22,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 25,98</t>
+          <t>14,43; 24,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,99; 27,9</t>
+          <t>15,87; 26,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,95; 29,88</t>
+          <t>17,87; 27,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 25,59</t>
+          <t>15,1; 22,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,12; 26,46</t>
+          <t>17,47; 24,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>26,65%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,48; 27,42</t>
+          <t>22,52; 28,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 28,81</t>
+          <t>21,35; 29,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 28,65</t>
+          <t>25,17; 31,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,11</t>
+          <t>24,18; 31,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>24,89; 29,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 27,93</t>
+          <t>24,06; 29,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 27,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 27,88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 28,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 28,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 27,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 27,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75744</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>111000</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>66654</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>108960</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>142398</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>219959</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52199; 99230</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77432; 142998</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47517; 88798</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>80963; 144179</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>112136; 175249</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>177039; 267101</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>170314</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>251838</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>187531</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>261328</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>357845</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>513167</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>135383; 206095</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>205297; 300484</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>155133; 224416</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>217364; 309001</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>308824; 410265</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>447784; 579478</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74277</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>135453</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>110871</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>171376</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>185148</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>306829</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50339; 100688</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>103277; 175312</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84399; 138533</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>137416; 212406</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>149083; 222280</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>259458; 364491</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>484.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>541496</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>371936</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>593547</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>390346</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1135043</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>762281</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>476238; 607810</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>311117; 432595</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>525932; 654220</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>339371; 444485</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1046419; 1229794</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>688354; 852109</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>861831</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>870227</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>958603</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>932009</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1820434</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1802236</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>774744; 948244</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>783935; 960358</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>880194; 1037937</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>847698; 1020855</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1709940; 1943191</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1682238; 1935082</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>